--- a/backend/income_details.xlsx
+++ b/backend/income_details.xlsx
@@ -416,24 +416,24 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Prize</v>
+        <v>Savings</v>
       </c>
       <c r="B2">
         <v>20000</v>
       </c>
       <c r="C2" s="1">
-        <v>45838.82801068287</v>
+        <v>46006.22928240741</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Salary</v>
+        <v>Internship</v>
       </c>
       <c r="B3">
-        <v>200000</v>
+        <v>100000</v>
       </c>
       <c r="C3" s="1">
-        <v>45833.82801068287</v>
+        <v>45871.22928240741</v>
       </c>
     </row>
   </sheetData>
